--- a/DCISM_WBRMSystem/file/temp_inventory/LB 468 (124 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 468 (124 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 468</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -30329,7 +30329,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="guUyltrXyO2vTyskW/C48tGPTnzGE1G47iPMRK9X7Hm7DV5LHKB2b1hA0KHFmcouKYnAWJrPTpzfo4Zxu6ylWw==" saltValue="m+MSnynt5edTVvu1gUvujQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G7z8XwkoC1Rm4N133ksLntQ0OCZQSQHYxhW/fIJUNN9SzGQhhq7cdxTVRikOX64xBnvoYF6Z0BzxCGbg+XOLrw==" saltValue="CXr/FQaLuMQzx9ZfOGiajQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
